--- a/TestData/registerdata.xlsx
+++ b/TestData/registerdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\golda\git\DsAlgoProject\DsAlgoProject\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5444E78B-1773-4F2D-8016-93B41D58B343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D39AE14-0871-4F71-AA24-FDF7B3B28F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E8BF74E7-68B1-4019-8BF3-87723F6AC7A6}"/>
   </bookViews>
@@ -36,12 +36,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="6">
   <si>
     <t>judesjoanna@gmail.com</t>
   </si>
   <si>
     <t>joanna@123</t>
+  </si>
+  <si>
+    <t>antojudes@gmail.com</t>
+  </si>
+  <si>
+    <t>gmail@123</t>
+  </si>
+  <si>
+    <t>numpyninja@gamil.com</t>
+  </si>
+  <si>
+    <t>numpy@123</t>
   </si>
 </sst>
 </file>
@@ -424,10 +436,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62AAEC36-8D3D-4AA4-90D1-664903A2D7D8}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -447,11 +459,39 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{528E2C5E-82F1-43DA-A09C-4C2C70C907E0}"/>
     <hyperlink ref="B1" r:id="rId2" xr:uid="{1580ECAA-E072-4048-9EB7-5B849460789F}"/>
     <hyperlink ref="C1" r:id="rId3" xr:uid="{43B63CC5-8761-43B8-81E2-8831545CEAB1}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{E325FEF1-B15A-4625-ADBD-9A87F914E513}"/>
+    <hyperlink ref="B2" r:id="rId5" xr:uid="{C3D4AABF-C6D9-4B11-9B54-711C4C89FC32}"/>
+    <hyperlink ref="C2" r:id="rId6" xr:uid="{BA11BF30-3466-4F2C-9E90-040A7E6CBB0A}"/>
+    <hyperlink ref="A3" r:id="rId7" xr:uid="{97BF9BE4-50E5-436F-8977-812EC285BA3D}"/>
+    <hyperlink ref="B3" r:id="rId8" xr:uid="{FDFA79FC-65A7-415D-BE2D-A9EC861CB763}"/>
+    <hyperlink ref="C3" r:id="rId9" xr:uid="{8D21F0A0-AEB3-4C48-B94B-993AD8D8180C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
